--- a/readme/開発環境構築手順.xlsx
+++ b/readme/開発環境構築手順.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osawa\git\entrec\readme\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="14595"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>■開発環境構築手順</t>
     <rPh sb="1" eb="3">
@@ -529,25 +534,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>構築手順の詳細は各シートを参照してください。</t>
-    <rPh sb="0" eb="2">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MySQL設定</t>
   </si>
   <si>
@@ -641,11 +627,37 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>＜データソースの作成＞</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構築手順の詳細は各シートを参照。</t>
+    <rPh sb="0" eb="2">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,6 +806,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -815,7 +830,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -853,7 +874,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -913,7 +940,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -951,7 +984,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1011,7 +1050,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1049,7 +1094,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1109,7 +1160,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1147,7 +1204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1185,7 +1248,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1223,7 +1292,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1261,7 +1336,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1299,7 +1380,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1359,7 +1446,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1420,7 +1513,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1480,7 +1579,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1540,7 +1645,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1600,7 +1711,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1660,7 +1777,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1698,7 +1821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1758,7 +1887,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1796,7 +1931,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1856,7 +1997,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1894,7 +2041,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1954,7 +2107,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1992,7 +2151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2052,7 +2217,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2090,7 +2261,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2151,7 +2328,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2211,7 +2394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2249,7 +2438,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2287,7 +2482,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2325,7 +2526,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2385,7 +2592,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2445,7 +2658,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2505,7 +2724,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40"/>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2543,7 +2768,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2603,7 +2834,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42"/>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2641,7 +2878,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="図 43"/>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2679,7 +2922,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2740,7 +2989,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45"/>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2778,7 +3033,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2838,7 +3099,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2898,7 +3165,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2958,7 +3231,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49"/>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2996,7 +3275,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3056,7 +3341,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51"/>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3094,7 +3385,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3132,7 +3429,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3193,7 +3496,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3253,7 +3562,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3318,7 +3633,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3356,7 +3677,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3416,7 +3743,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3454,7 +3787,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3492,7 +3831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3530,7 +3875,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3590,7 +3941,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3650,7 +4007,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="四角形吹き出し 19"/>
+        <xdr:cNvPr id="20" name="四角形吹き出し 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3727,7 +4090,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3787,7 +4156,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3825,7 +4200,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3863,7 +4244,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3924,7 +4311,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3962,7 +4355,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4023,7 +4422,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="カギ線コネクタ 27"/>
+        <xdr:cNvPr id="28" name="カギ線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="0"/>
           <a:endCxn id="25" idx="1"/>
@@ -4077,7 +4482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="四角形吹き出し 29"/>
+        <xdr:cNvPr id="30" name="四角形吹き出し 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4161,7 +4572,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4199,7 +4616,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4237,7 +4660,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4275,7 +4704,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4336,7 +4771,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4396,7 +4837,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4456,7 +4903,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4516,7 +4969,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4576,7 +5035,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4642,7 +5107,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4703,7 +5174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4741,7 +5218,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4779,7 +5262,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4840,7 +5329,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4878,7 +5373,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4939,7 +5440,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5000,7 +5507,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形吹き出し 11"/>
+        <xdr:cNvPr id="12" name="四角形吹き出し 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5075,7 +5588,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5113,7 +5632,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5173,7 +5698,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5211,7 +5742,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5272,7 +5809,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5310,7 +5853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5370,7 +5919,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5408,7 +5963,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5468,7 +6029,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5506,7 +6073,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5572,7 +6145,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5610,7 +6189,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5648,7 +6233,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5709,7 +6300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5747,7 +6344,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5807,7 +6410,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5845,7 +6454,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5906,7 +6521,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5966,7 +6587,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6004,7 +6631,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6064,7 +6697,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6124,7 +6763,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6162,7 +6807,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6223,7 +6874,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6261,7 +6918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6299,7 +6962,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6359,7 +7028,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6419,7 +7094,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6479,7 +7160,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6540,7 +7227,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6578,7 +7271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6638,7 +7337,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6676,7 +7381,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6736,7 +7447,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6797,7 +7514,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6835,7 +7558,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6896,7 +7625,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6957,7 +7692,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7000,7 +7741,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7066,7 +7813,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7116,7 +7869,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7158,7 +7911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7191,9 +7944,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7226,6 +7996,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7421,7 +8208,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -7429,7 +8216,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -7437,7 +8224,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -7453,7 +8240,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -7469,7 +8256,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -7492,7 +8279,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -7551,7 +8338,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -7627,7 +8414,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -7636,7 +8423,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -7649,7 +8436,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
@@ -7677,7 +8464,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -7932,7 +8719,7 @@
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B271" s="7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.15">
@@ -7956,12 +8743,12 @@
         <v>1</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C379" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +8774,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
     </row>
